--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_10-05.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_10-05.xlsx
@@ -59,22 +59,25 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DOLPHIN 25 MG 10 SUPP.</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
     <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
   <si>
     <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
@@ -839,7 +842,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -859,17 +862,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -877,7 +880,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -885,17 +888,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -911,17 +914,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>14.25</v>
+        <v>90</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -937,13 +940,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>38</v>
+        <v>14.25</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -963,17 +966,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -989,13 +992,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1007,7 +1010,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1015,13 +1018,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1041,17 +1044,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1059,7 +1062,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1067,51 +1070,77 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c t="s" r="B19" s="7">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c t="s" r="H19" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="K19" s="10">
-        <v>671.08000000000004</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="11">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>6</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c t="s" r="N19" s="7">
         <v>34</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c t="s" r="F20" s="12">
+    </row>
+    <row r="20" ht="26.25" customHeight="1">
+      <c r="K20" s="10">
+        <v>724.08000000000004</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="11">
         <v>35</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c t="s" r="I20" s="14">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c t="s" r="F21" s="12">
         <v>36</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c t="s" r="I21" s="14">
+        <v>37</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="59">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1164,10 +1193,13 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:N21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
